--- a/Projeto-01-Feature-Engineering/descritivo_características.xlsx
+++ b/Projeto-01-Feature-Engineering/descritivo_características.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27103"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -15,327 +15,343 @@
   <sheets>
     <sheet name="Competition Variables" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191028"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="103">
   <si>
+    <t>Var_Id</t>
+  </si>
+  <si>
+    <t>Característica</t>
+  </si>
+  <si>
+    <t>Descrição</t>
+  </si>
+  <si>
+    <t>ID_CLIENTE</t>
+  </si>
+  <si>
+    <t>Número sequencial para o requerente (a ser usado como chave)</t>
+  </si>
+  <si>
+    <t>TIPO_FUNCIONARIO</t>
+  </si>
+  <si>
+    <t>Não informado</t>
+  </si>
+  <si>
+    <t>DIA_PAGAMENTO</t>
+  </si>
+  <si>
+    <t>Dia do mês para o pagamento da fatura, escolhido pelo requerente</t>
+  </si>
+  <si>
+    <t>TIPO_ENVIO_APLICACAO</t>
+  </si>
+  <si>
+    <t>Indica se a aplicação foi submetida via internet ou pessoalmente/enviada pelo correio</t>
+  </si>
+  <si>
+    <t>QUANT_CARTOES_ADICIONAIS</t>
+  </si>
+  <si>
+    <t>Quantidade de cartões adicionais solicitados no mesmo formulário de aplicação</t>
+  </si>
+  <si>
+    <t>TIPO_ENDERECO_POSTAL</t>
+  </si>
+  <si>
+    <t>Indica se o endereço para envio é o endereço residencial ou outro. Codificação não informada.</t>
+  </si>
+  <si>
+    <t>SEXO</t>
+  </si>
+  <si>
+    <t>ESTADO_CIVIL</t>
+  </si>
+  <si>
+    <t>Codificação não informada</t>
+  </si>
+  <si>
+    <t>QUANT_DEPENDENTES</t>
+  </si>
+  <si>
+    <t>NIVEL_EDUCACIONAL</t>
+  </si>
+  <si>
+    <t>Nível educacional em ordem gradual não informado</t>
+  </si>
+  <si>
+    <t>ESTADO_NASCIMENTO</t>
+  </si>
+  <si>
+    <t>CIDADE_NASCIMENTO</t>
+  </si>
+  <si>
+    <t>NACIONALIDADE</t>
+  </si>
+  <si>
+    <t>País de nascimento. Codificação não informada, mas é provável que o Brasil seja igual a 1.</t>
+  </si>
+  <si>
+    <t>ESTADO_RESIDENCIAL</t>
+  </si>
+  <si>
+    <t>Estado de residência</t>
+  </si>
+  <si>
+    <t>CIDADE_RESIDENCIAL</t>
+  </si>
+  <si>
+    <t>Cidade de residência</t>
+  </si>
+  <si>
+    <t>BAIRRO_RESIDENCIAL</t>
+  </si>
+  <si>
+    <t>Bairro de residência</t>
+  </si>
+  <si>
+    <t>FLAG_TELEFONE_RESIDENCIAL</t>
+  </si>
+  <si>
+    <t>Indica se o requerente possui um telefone residencial</t>
+  </si>
+  <si>
+    <t>CODIGO_AREA_TELEFONE_RESIDENCIAL</t>
+  </si>
+  <si>
+    <t>Pseudo-código de três dígitos</t>
+  </si>
+  <si>
+    <t>TIPO_RESIDENCIA</t>
+  </si>
+  <si>
+    <t>Codificação não informada. Em geral, existem tipos como: própria, hipotecada, alugada, dos pais, familiar, etc.</t>
+  </si>
+  <si>
+    <t>MESES_RESIDENCIA</t>
+  </si>
+  <si>
+    <t>Tempo na residência atual em meses</t>
+  </si>
+  <si>
+    <t>FLAG_TELEFONE_MOVEL</t>
+  </si>
+  <si>
+    <t>Indica se o requerente possui um telefone móvel</t>
+  </si>
+  <si>
     <t>FLAG_EMAIL</t>
   </si>
   <si>
+    <t>Indica se o requerente possui um endereço de e-mail</t>
+  </si>
+  <si>
+    <t>RENDA_PESSOAL_MENSAL</t>
+  </si>
+  <si>
+    <t>Renda mensal regular pessoal do requerente em moeda brasileira (R$)</t>
+  </si>
+  <si>
+    <t>OUTRAS_RENDAS</t>
+  </si>
+  <si>
+    <t>Outras rendas mensais médias do requerente em moeda brasileira (R$)</t>
+  </si>
+  <si>
     <t>FLAG_VISA</t>
   </si>
   <si>
+    <t>Indicador se o requerente é titular de um cartão de crédito VISA</t>
+  </si>
+  <si>
     <t>FLAG_MASTERCARD</t>
   </si>
   <si>
+    <t>Indicador se o requerente é titular de um cartão de crédito MASTERCARD</t>
+  </si>
+  <si>
     <t>FLAG_DINERS</t>
   </si>
   <si>
+    <t>Indicador se o requerente é titular de um cartão de crédito DINERS</t>
+  </si>
+  <si>
     <t>FLAG_AMERICAN_EXPRESS</t>
   </si>
   <si>
+    <t>Indicador se o requerente é titular de um cartão de crédito AMERICAN EXPRESS</t>
+  </si>
+  <si>
+    <t>FLAG_OUTROS_CARTOES</t>
+  </si>
+  <si>
+    <t>Apesar de ser rotulado como "FLAG", esse campo apresenta três valores não explicados</t>
+  </si>
+  <si>
+    <t>QUANT_CONTAS_BANCARIAS</t>
+  </si>
+  <si>
+    <t>QUANT_CONTAS_BANCARIAS_ESPECIAIS</t>
+  </si>
+  <si>
+    <t>VALOR_PATRIMONIO_PESSOAL</t>
+  </si>
+  <si>
+    <t>Valor total dos bens pessoais, como casas, carros, etc., em moeda brasileira (R$)</t>
+  </si>
+  <si>
+    <t>QUANT_CARROS</t>
+  </si>
+  <si>
+    <t>Quantidade de carros que o requerente possui</t>
+  </si>
+  <si>
+    <t>EMPRESA</t>
+  </si>
+  <si>
+    <t>Se o requerente forneceu o nome da empresa onde ele/ela trabalha formalmente</t>
+  </si>
+  <si>
+    <t>ESTADO_PROFISSIONAL</t>
+  </si>
+  <si>
+    <t>Estado onde o requerente trabalha</t>
+  </si>
+  <si>
+    <t>CIDADE_PROFISSIONAL</t>
+  </si>
+  <si>
+    <t>Cidade onde o requerente trabalha</t>
+  </si>
+  <si>
+    <t>BAIRRO_PROFISSIONAL</t>
+  </si>
+  <si>
+    <t>Bairro onde o requerente trabalha</t>
+  </si>
+  <si>
+    <t>FLAG_TELEFONE_PROFISSIONAL</t>
+  </si>
+  <si>
+    <t>Indica se o número de telefone profissional foi fornecido</t>
+  </si>
+  <si>
+    <t>CODIGO_AREA_TELEFONE_PROFISSIONAL</t>
+  </si>
+  <si>
+    <t>MESES_NO_TRABALHO</t>
+  </si>
+  <si>
+    <t>Tempo no emprego atual em meses</t>
+  </si>
+  <si>
+    <t>CODIGO_PROFISSAO</t>
+  </si>
+  <si>
+    <t>Código profissional do requerente. Codificação não informada</t>
+  </si>
+  <si>
+    <t>TIPO_OCUPACAO</t>
+  </si>
+  <si>
+    <t>CODIGO_PROFISSAO_CONJUGE</t>
+  </si>
+  <si>
+    <t>Código profissional do cônjuge. Codificação não informada</t>
+  </si>
+  <si>
+    <t>NIVEL_EDUCACIONAL_CONJUGE</t>
+  </si>
+  <si>
+    <t>Nível educacional do cônjuge em ordem gradual não informado</t>
+  </si>
+  <si>
+    <t>FLAG_DOCUMENTO_RESIDENCIAL</t>
+  </si>
+  <si>
+    <t>Indicador de confirmação documental do endereço residencial</t>
+  </si>
+  <si>
     <t>FLAG_RG</t>
   </si>
   <si>
+    <t>Indicador de confirmação documental do número do cartão de cidadão</t>
+  </si>
+  <si>
     <t>FLAG_CPF</t>
   </si>
   <si>
-    <t>Var_Id</t>
-  </si>
-  <si>
-    <t>ID_CLIENTE</t>
-  </si>
-  <si>
-    <t>TIPO_FUNCIONARIO</t>
-  </si>
-  <si>
-    <t>DIA_PAGAMENTO</t>
-  </si>
-  <si>
-    <t>TIPO_ENVIO_APLICACAO</t>
-  </si>
-  <si>
-    <t>QUANT_CARTOES_ADICIONAIS</t>
-  </si>
-  <si>
-    <t>TIPO_ENDERECO_POSTAL</t>
-  </si>
-  <si>
-    <t>SEXO</t>
-  </si>
-  <si>
-    <t>ESTADO_CIVIL</t>
-  </si>
-  <si>
-    <t>QUANT_DEPENDENTES</t>
-  </si>
-  <si>
-    <t>NIVEL_EDUCACIONAL</t>
-  </si>
-  <si>
-    <t>ESTADO_NASCIMENTO</t>
-  </si>
-  <si>
-    <t>CIDADE_NASCIMENTO</t>
-  </si>
-  <si>
-    <t>NACIONALIDADE</t>
-  </si>
-  <si>
-    <t>ESTADO_RESIDENCIAL</t>
-  </si>
-  <si>
-    <t>CIDADE_RESIDENCIAL</t>
-  </si>
-  <si>
-    <t>BAIRRO_RESIDENCIAL</t>
-  </si>
-  <si>
-    <t>FLAG_TELEFONE_RESIDENCIAL</t>
-  </si>
-  <si>
-    <t>CODIGO_AREA_TELEFONE_RESIDENCIAL</t>
-  </si>
-  <si>
-    <t>TIPO_RESIDENCIA</t>
-  </si>
-  <si>
-    <t>MESES_RESIDENCIA</t>
-  </si>
-  <si>
-    <t>FLAG_TELEFONE_MOVEL</t>
-  </si>
-  <si>
-    <t>RENDA_PESSOAL_MENSAL</t>
-  </si>
-  <si>
-    <t>OUTRAS_RENDAS</t>
-  </si>
-  <si>
-    <t>FLAG_OUTROS_CARTOES</t>
-  </si>
-  <si>
-    <t>QUANT_CONTAS_BANCARIAS</t>
-  </si>
-  <si>
-    <t>QUANT_CONTAS_BANCARIAS_ESPECIAIS</t>
-  </si>
-  <si>
-    <t>VALOR_PATRIMONIO_PESSOAL</t>
-  </si>
-  <si>
-    <t>QUANT_CARROS</t>
-  </si>
-  <si>
-    <t>EMPRESA</t>
-  </si>
-  <si>
-    <t>ESTADO_PROFISSIONAL</t>
-  </si>
-  <si>
-    <t>CIDADE_PROFISSIONAL</t>
-  </si>
-  <si>
-    <t>BAIRRO_PROFISSIONAL</t>
-  </si>
-  <si>
-    <t>FLAG_TELEFONE_PROFISSIONAL</t>
-  </si>
-  <si>
-    <t>CODIGO_AREA_TELEFONE_PROFISSIONAL</t>
-  </si>
-  <si>
-    <t>MESES_NO_TRABALHO</t>
-  </si>
-  <si>
-    <t>CODIGO_PROFISSAO</t>
-  </si>
-  <si>
-    <t>TIPO_OCUPACAO</t>
-  </si>
-  <si>
-    <t>CODIGO_PROFISSAO_CONJUGE</t>
-  </si>
-  <si>
-    <t>NIVEL_EDUCACIONAL_CONJUGE</t>
-  </si>
-  <si>
-    <t>FLAG_DOCUMENTO_RESIDENCIAL</t>
+    <t>Indicador de confirmação documental do status de contribuinte</t>
   </si>
   <si>
     <t>FLAG_COMPROVANTE_RENDA</t>
   </si>
   <si>
+    <t>Indicador de confirmação documental da renda</t>
+  </si>
+  <si>
     <t>PRODUTO</t>
   </si>
   <si>
+    <t>Tipo de produto de crédito aplicado. Codificação não informada</t>
+  </si>
+  <si>
     <t>FLAG_REGISTRO_ACSP</t>
   </si>
   <si>
+    <t>Indicador se o requerente possui alguma inadimplência de crédito anterior</t>
+  </si>
+  <si>
     <t>IDADE</t>
   </si>
   <si>
+    <t>Idade do requerente no momento da inscrição</t>
+  </si>
+  <si>
     <t>CEP_RESIDENCIAL_3</t>
   </si>
   <si>
+    <t>Três dígitos mais significativos do CEP residencial atual</t>
+  </si>
+  <si>
     <t>CEP_PROFISSIONAL_3</t>
   </si>
   <si>
+    <t>Três dígitos mais significativos do CEP do emprego atual</t>
+  </si>
+  <si>
     <t>ROTULO_ALVO_MAU=1</t>
   </si>
   <si>
-    <t>Número sequencial para o requerente (a ser usado como chave)</t>
-  </si>
-  <si>
-    <t>Não informado</t>
-  </si>
-  <si>
-    <t>Dia do mês para o pagamento da fatura, escolhido pelo requerente</t>
-  </si>
-  <si>
-    <t>Indica se a aplicação foi submetida via internet ou pessoalmente/enviada pelo correio</t>
-  </si>
-  <si>
-    <t>Quantidade de cartões adicionais solicitados no mesmo formulário de aplicação</t>
-  </si>
-  <si>
-    <t>Indica se o endereço para envio é o endereço residencial ou outro. Codificação não informada.</t>
-  </si>
-  <si>
-    <t>Estado de residência</t>
-  </si>
-  <si>
-    <t>Cidade de residência</t>
-  </si>
-  <si>
-    <t>Bairro de residência</t>
-  </si>
-  <si>
-    <t>Indica se o requerente possui um telefone residencial</t>
-  </si>
-  <si>
-    <t>Pseudo-código de três dígitos</t>
-  </si>
-  <si>
-    <t>Tempo na residência atual em meses</t>
-  </si>
-  <si>
-    <t>Indica se o requerente possui um telefone móvel</t>
-  </si>
-  <si>
-    <t>Indica se o requerente possui um endereço de e-mail</t>
-  </si>
-  <si>
-    <t>Renda mensal regular pessoal do requerente em moeda brasileira (R$)</t>
-  </si>
-  <si>
-    <t>Outras rendas mensais médias do requerente em moeda brasileira (R$)</t>
-  </si>
-  <si>
-    <t>Indicador se o requerente é titular de um cartão de crédito VISA</t>
-  </si>
-  <si>
-    <t>Indicador se o requerente é titular de um cartão de crédito MASTERCARD</t>
-  </si>
-  <si>
-    <t>Indicador se o requerente é titular de um cartão de crédito DINERS</t>
-  </si>
-  <si>
-    <t>Indicador se o requerente é titular de um cartão de crédito AMERICAN EXPRESS</t>
-  </si>
-  <si>
-    <t>Apesar de ser rotulado como "FLAG", esse campo apresenta três valores não explicados</t>
-  </si>
-  <si>
-    <t>Valor total dos bens pessoais, como casas, carros, etc., em moeda brasileira (R$)</t>
-  </si>
-  <si>
-    <t>Quantidade de carros que o requerente possui</t>
-  </si>
-  <si>
-    <t>Estado onde o requerente trabalha</t>
-  </si>
-  <si>
-    <t>Cidade onde o requerente trabalha</t>
-  </si>
-  <si>
-    <t>Bairro onde o requerente trabalha</t>
-  </si>
-  <si>
-    <t>Indica se o número de telefone profissional foi fornecido</t>
-  </si>
-  <si>
-    <t>Tempo no emprego atual em meses</t>
-  </si>
-  <si>
-    <t>Código profissional do requerente. Codificação não informada</t>
-  </si>
-  <si>
-    <t>Codificação não informada</t>
-  </si>
-  <si>
-    <t>Código profissional do cônjuge. Codificação não informada</t>
-  </si>
-  <si>
-    <t>Nível educacional do cônjuge em ordem gradual não informado</t>
-  </si>
-  <si>
-    <t>Indicador de confirmação documental do endereço residencial</t>
-  </si>
-  <si>
-    <t>Indicador de confirmação documental do número do cartão de cidadão</t>
-  </si>
-  <si>
-    <t>Indicador de confirmação documental do status de contribuinte</t>
-  </si>
-  <si>
-    <t>Indicador de confirmação documental da renda</t>
-  </si>
-  <si>
-    <t>Tipo de produto de crédito aplicado. Codificação não informada</t>
-  </si>
-  <si>
-    <t>Indicador se o requerente possui alguma inadimplência de crédito anterior</t>
-  </si>
-  <si>
-    <t>Idade do requerente no momento da inscrição</t>
-  </si>
-  <si>
     <t>Variável Alvo: BAD=1, BOM=0</t>
-  </si>
-  <si>
-    <t>Nível educacional em ordem gradual não informado</t>
-  </si>
-  <si>
-    <t>País de nascimento. Codificação não informada, mas é provável que o Brasil seja igual a 1.</t>
-  </si>
-  <si>
-    <t>Codificação não informada. Em geral, existem tipos como: própria, hipotecada, alugada, dos pais, familiar, etc.</t>
-  </si>
-  <si>
-    <t>Se o requerente forneceu o nome da empresa onde ele/ela trabalha formalmente</t>
-  </si>
-  <si>
-    <t>Três dígitos mais significativos do CEP residencial atual</t>
-  </si>
-  <si>
-    <t>Três dígitos mais significativos do CEP do emprego atual</t>
-  </si>
-  <si>
-    <t>Característica</t>
-  </si>
-  <si>
-    <t>Descrição</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -468,12 +484,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF374151"/>
-      <name val="Segoe UI"/>
       <family val="2"/>
     </font>
     <font>
@@ -812,7 +822,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -821,9 +831,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
@@ -1175,7 +1182,7 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="8.28515625" style="2" customWidth="1"/>
     <col min="2" max="2" width="54.28515625" style="2" customWidth="1"/>
@@ -1184,594 +1191,594 @@
     <col min="6" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" s="1" customFormat="1" ht="15">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>101</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="17.25" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="17.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="17.25" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="17.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="17.25" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="17.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="17.25" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="17.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="17.25" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="17.25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="17.25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:3" ht="17.25">
       <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="C7" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="17.25">
       <c r="A8" s="2">
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="17.25" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="17.25">
       <c r="A9" s="2">
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="17.25" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="17.25">
       <c r="A10" s="2">
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="4"/>
-    </row>
-    <row r="11" spans="1:3" ht="17.25" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+      <c r="C10" s="3"/>
+    </row>
+    <row r="11" spans="1:3" ht="17.25">
       <c r="A11" s="2">
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="17.25" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="17.25">
       <c r="A12" s="2">
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="17.25" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="17.25">
       <c r="A13" s="2">
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="17.25" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="17.25">
       <c r="A14" s="2">
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="17.25" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="17.25">
       <c r="A15" s="2">
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="17.25" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="17.25">
       <c r="A16" s="2">
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="17.25" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="17.25">
       <c r="A17" s="2">
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="17.25" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="17.25">
       <c r="A18" s="2">
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="17.25" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="17.25">
       <c r="A19" s="2">
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="17.25" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="17.25">
       <c r="A20" s="2">
         <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="17.25" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="17.25">
       <c r="A21" s="2">
         <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="17.25" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="17.25">
       <c r="A22" s="2">
         <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="17.25" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="17.25">
       <c r="A23" s="2">
         <v>22</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="17.25" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="17.25">
       <c r="A24" s="2">
         <v>23</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="17.25" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="17.25">
       <c r="A25" s="2">
         <v>24</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="17.25" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="17.25">
       <c r="A26" s="2">
         <v>25</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="17.25" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="17.25">
       <c r="A27" s="2">
         <v>26</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="17.25" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="17.25">
       <c r="A28" s="2">
         <v>27</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="17.25" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="17.25">
       <c r="A29" s="2">
         <v>28</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="17.25" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="17.25">
       <c r="A30" s="2">
         <v>29</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="17.25" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="17.25">
       <c r="A31" s="2">
         <v>30</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C31" s="4"/>
-    </row>
-    <row r="32" spans="1:3" ht="17.25" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+      <c r="C31" s="3"/>
+    </row>
+    <row r="32" spans="1:3" ht="17.25">
       <c r="A32" s="2">
         <v>31</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C32" s="4"/>
-    </row>
-    <row r="33" spans="1:3" ht="17.25" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+      <c r="C32" s="3"/>
+    </row>
+    <row r="33" spans="1:3" ht="17.25">
       <c r="A33" s="2">
         <v>32</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="17.25" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="17.25">
       <c r="A34" s="2">
         <v>33</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="17.25" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="17.25">
       <c r="A35" s="2">
         <v>34</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="17.25" x14ac:dyDescent="0.2">
+        <v>63</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="17.25">
       <c r="A36" s="2">
         <v>35</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="17.25" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="17.25">
       <c r="A37" s="2">
         <v>36</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="17.25" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="17.25">
       <c r="A38" s="2">
         <v>37</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="17.25" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="17.25">
       <c r="A39" s="2">
         <v>38</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="17.25" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="17.25">
       <c r="A40" s="2">
         <v>39</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="17.25" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="17.25">
       <c r="A41" s="2">
         <v>40</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="17.25" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="17.25">
       <c r="A42" s="2">
         <v>41</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="17.25" x14ac:dyDescent="0.2">
+        <v>76</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="17.25">
       <c r="A43" s="2">
         <v>42</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="17.25" x14ac:dyDescent="0.2">
+        <v>78</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="17.25">
       <c r="A44" s="2">
         <v>43</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="17.25" x14ac:dyDescent="0.2">
+        <v>79</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="17.25">
       <c r="A45" s="2">
         <v>44</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="17.25" x14ac:dyDescent="0.2">
+        <v>81</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="17.25">
       <c r="A46" s="2">
         <v>45</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="17.25" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="17.25">
       <c r="A47" s="2">
         <v>46</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="17.25" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="17.25">
       <c r="A48" s="2">
         <v>47</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="17.25">
       <c r="A49" s="2">
         <v>48</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C49" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C49" s="3" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5" ht="17.25">
       <c r="A50" s="2">
         <v>49</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C50" s="4" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="C50" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="17.25">
       <c r="A51" s="2">
         <v>50</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+        <v>93</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="17.25">
       <c r="A52" s="2">
         <v>51</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>95</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="13.5" customHeight="1">
       <c r="A53" s="2">
         <v>52</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" ht="17.25" x14ac:dyDescent="0.2">
+        <v>97</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="17.25">
       <c r="A54" s="2">
         <v>53</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C54" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C54" s="3" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="55" spans="1:5" s="1" customFormat="1" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" s="1" customFormat="1" ht="17.25">
       <c r="A55" s="2">
         <v>54</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>94</v>
+        <v>101</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>102</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" s="2"/>
